--- a/Data Files/DCWWIMPassVariables.xlsx
+++ b/Data Files/DCWWIMPassVariables.xlsx
@@ -17,10 +17,10 @@
     <t/>
   </si>
   <si>
-    <t>15-12-2022-10-18-46</t>
+    <t>20-12-2022-05-02-24</t>
   </si>
   <si>
-    <t>/Users/barryreid/Katalon Studio/dcww-investment-manager.git/Data Files/</t>
+    <t>/Users/quan.trinh/git/UploadFileKRE1/Data Files/</t>
   </si>
 </sst>
 </file>
